--- a/二期核算/二期核算.xlsx
+++ b/二期核算/二期核算.xlsx
@@ -505,9 +505,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -538,6 +535,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -864,36 +864,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -902,54 +902,54 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
         <v>15</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
         <v>15</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
         <v>25</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -958,430 +958,430 @@
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>20</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
         <v>25</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>15</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <v>15</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1393,25 +1393,25 @@
       <c r="D40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1420,45 +1420,45 @@
       <c r="D42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D43" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G44" s="11"/>
+      <c r="G44" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A5:A19"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B39"/>
     <mergeCell ref="A25:A39"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1544,13 +1544,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="C11">
         <v>3200</v>
       </c>
       <c r="D11">
-        <v>201600</v>
+        <v>219600</v>
       </c>
     </row>
   </sheetData>

--- a/二期核算/二期核算.xlsx
+++ b/二期核算/二期核算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="116">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,68 @@
   </si>
   <si>
     <t>行政及社保成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储作业价格维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储作业费用计费单位维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视化库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存库位的可视化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘永坤</t>
+  </si>
+  <si>
+    <t>刘永坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜丽华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余功凎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜丽华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周伟</t>
+  </si>
+  <si>
+    <t>周伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -538,7 +600,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -845,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,7 +961,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -905,15 +973,21 @@
       <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="10">
+        <v>20170701</v>
+      </c>
+      <c r="F2" s="10">
+        <v>20170715</v>
+      </c>
       <c r="G2" s="10">
         <v>15</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -923,15 +997,21 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="10">
+        <v>20170716</v>
+      </c>
+      <c r="F3" s="10">
+        <v>20170730</v>
+      </c>
       <c r="G3" s="10">
         <v>15</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -941,524 +1021,936 @@
       <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="10">
+        <v>20170701</v>
+      </c>
+      <c r="F4" s="10">
+        <v>20170725</v>
+      </c>
       <c r="G4" s="10">
         <v>25</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="H4" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10">
+        <v>20171010</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20171105</v>
+      </c>
+      <c r="G5" s="10">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
+      <c r="E6" s="10">
+        <v>20170701</v>
+      </c>
+      <c r="F6" s="10">
+        <v>20170720</v>
+      </c>
+      <c r="G6" s="10">
         <v>20</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="H6" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="E7" s="10">
+        <v>20170701</v>
+      </c>
+      <c r="F7" s="10">
+        <v>20170725</v>
+      </c>
+      <c r="G7" s="10">
         <v>25</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="4" t="s">
+      <c r="H7" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="10">
+        <v>20170726</v>
+      </c>
+      <c r="F8" s="10">
+        <v>20170810</v>
+      </c>
       <c r="G8" s="10">
         <v>15</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10">
+        <v>20170811</v>
+      </c>
+      <c r="F9" s="10">
+        <v>20170825</v>
       </c>
       <c r="G9" s="10">
         <v>15</v>
       </c>
+      <c r="H9" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="10">
+        <v>20170826</v>
+      </c>
+      <c r="F10" s="10">
+        <v>20170910</v>
       </c>
       <c r="G10" s="10">
         <v>15</v>
       </c>
+      <c r="H10" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="10">
+        <v>20170911</v>
+      </c>
+      <c r="F11" s="10">
+        <v>20170925</v>
       </c>
       <c r="G11" s="10">
         <v>15</v>
       </c>
+      <c r="H11" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="10">
+        <v>20170926</v>
+      </c>
+      <c r="F12" s="10">
+        <v>20171020</v>
       </c>
       <c r="G12" s="10">
         <v>15</v>
       </c>
+      <c r="H12" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E13" s="10">
+        <v>20170901</v>
+      </c>
+      <c r="F13" s="10">
+        <v>20170915</v>
       </c>
       <c r="G13" s="10">
         <v>15</v>
       </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="10">
+        <v>20170916</v>
+      </c>
+      <c r="F14" s="10">
+        <v>20170930</v>
+      </c>
+      <c r="G14" s="10">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
+      <c r="E15" s="10">
+        <v>20171009</v>
+      </c>
+      <c r="F15" s="10">
+        <v>20171020</v>
       </c>
       <c r="G15" s="10">
         <v>10</v>
       </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10">
+        <v>20171021</v>
+      </c>
+      <c r="F16" s="10">
+        <v>20171030</v>
+      </c>
+      <c r="G16" s="10">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>42</v>
+      <c r="E17" s="10">
+        <v>20171031</v>
+      </c>
+      <c r="F17" s="10">
+        <v>20171125</v>
       </c>
       <c r="G17" s="10">
         <v>25</v>
       </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="10">
+        <v>20171126</v>
+      </c>
+      <c r="F18" s="10">
+        <v>20171220</v>
+      </c>
+      <c r="G18" s="10">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="10">
+      <c r="E19" s="10">
+        <v>20171221</v>
+      </c>
+      <c r="F19" s="10">
+        <v>20171230</v>
+      </c>
+      <c r="G19" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="8" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="E21" s="10">
+        <v>20170731</v>
+      </c>
+      <c r="F21" s="10">
+        <v>20170820</v>
+      </c>
       <c r="G21" s="10">
         <v>20</v>
       </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="E22" s="10">
+        <v>20170821</v>
+      </c>
+      <c r="F22" s="10">
+        <v>20170910</v>
+      </c>
       <c r="G22" s="10">
         <v>20</v>
       </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="10">
+        <v>20170911</v>
+      </c>
+      <c r="F23" s="10">
+        <v>20170930</v>
+      </c>
+      <c r="G23" s="10">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="10">
+        <v>20170801</v>
+      </c>
+      <c r="F24" s="10">
+        <v>20170810</v>
+      </c>
+      <c r="G24" s="10">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="E25" s="10">
+        <v>20170811</v>
+      </c>
+      <c r="F25" s="10">
+        <v>20170820</v>
+      </c>
+      <c r="G25" s="10">
+        <v>10</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="3" t="s">
-        <v>59</v>
+      <c r="E26" s="10">
+        <v>20170726</v>
+      </c>
+      <c r="F26" s="10">
+        <v>20170810</v>
       </c>
       <c r="G26" s="10">
         <v>15</v>
       </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="E27" s="10">
+        <v>20170811</v>
+      </c>
+      <c r="F27" s="10">
+        <v>20170825</v>
       </c>
       <c r="G27" s="10">
         <v>15</v>
       </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="E28" s="10">
+        <v>20170826</v>
+      </c>
+      <c r="F28" s="10">
+        <v>20170910</v>
       </c>
       <c r="G28" s="10">
         <v>15</v>
       </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E29" s="10">
+        <v>20170911</v>
+      </c>
+      <c r="F29" s="10">
+        <v>20170925</v>
       </c>
       <c r="G29" s="10">
         <v>15</v>
       </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="E30" s="10">
+        <v>20170926</v>
+      </c>
+      <c r="F30" s="10">
+        <v>20171020</v>
       </c>
       <c r="G30" s="10">
         <v>15</v>
       </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="10">
+        <v>20171021</v>
+      </c>
+      <c r="F31" s="10">
+        <v>20171105</v>
+      </c>
+      <c r="G31" s="10">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
+      <c r="E32" s="10">
+        <v>20171106</v>
+      </c>
+      <c r="F32" s="10">
+        <v>20171126</v>
       </c>
       <c r="G32" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="E33" s="10">
+        <v>20170901</v>
+      </c>
+      <c r="F33" s="10">
+        <v>20170920</v>
       </c>
       <c r="G33" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16" t="s">
+      <c r="H33" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="10">
+        <v>20170921</v>
+      </c>
+      <c r="F34" s="10">
+        <v>20171020</v>
+      </c>
+      <c r="G34" s="10">
+        <v>20</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="3" t="s">
-        <v>84</v>
+      <c r="E35" s="10">
+        <v>20170701</v>
+      </c>
+      <c r="F35" s="10">
+        <v>20170710</v>
       </c>
       <c r="G35" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E36" s="10">
+        <v>20170711</v>
+      </c>
+      <c r="F36" s="10">
+        <v>20170720</v>
       </c>
       <c r="G36" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
+      </c>
+      <c r="E37" s="10">
+        <v>20170721</v>
+      </c>
+      <c r="F37" s="10">
+        <v>20170730</v>
       </c>
       <c r="G37" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
+      <c r="H37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E38" s="10">
+        <v>20170801</v>
+      </c>
+      <c r="F38" s="10">
+        <v>20170810</v>
       </c>
       <c r="G38" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
+      <c r="H38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="E39" s="10">
+        <v>20170811</v>
+      </c>
+      <c r="F39" s="10">
+        <v>20170820</v>
       </c>
       <c r="G39" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
+      <c r="H39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="10">
+        <v>20170821</v>
+      </c>
+      <c r="F40" s="10">
+        <v>20170830</v>
+      </c>
+      <c r="G40" s="10">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="10">
+      <c r="E41" s="10">
+        <v>20170701</v>
+      </c>
+      <c r="F41" s="10">
+        <v>20170725</v>
+      </c>
+      <c r="G41" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="4" t="s">
+      <c r="H41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="10">
+      <c r="E42" s="10">
+        <v>20170726</v>
+      </c>
+      <c r="F42" s="10">
+        <v>20170805</v>
+      </c>
+      <c r="G42" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16" t="s">
+      <c r="H42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="10">
+      <c r="E43" s="10">
+        <v>20170806</v>
+      </c>
+      <c r="F43" s="10">
+        <v>20170910</v>
+      </c>
+      <c r="G43" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="3" t="s">
+      <c r="H43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="10">
+      <c r="E44" s="10">
+        <v>20170911</v>
+      </c>
+      <c r="F44" s="10">
+        <v>20170920</v>
+      </c>
+      <c r="G44" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G44" s="10"/>
+      <c r="H44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="10">
+        <v>20170921</v>
+      </c>
+      <c r="F45" s="10">
+        <v>20171001</v>
+      </c>
+      <c r="G45" s="10">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="10">
+        <v>20170601</v>
+      </c>
+      <c r="F48" s="10">
+        <v>20170615</v>
+      </c>
+      <c r="G48" s="10">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="10">
+        <v>20170616</v>
+      </c>
+      <c r="F49" s="10">
+        <v>20170630</v>
+      </c>
+      <c r="G49" s="10">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="A25:A39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1470,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1482,12 +1974,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -1505,7 +1997,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>659</v>
+        <v>730</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1514,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>131800</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -1541,7 +2033,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>9000</v>
@@ -1550,7 +2042,7 @@
         <v>3200</v>
       </c>
       <c r="D11">
-        <v>219600</v>
+        <v>244000</v>
       </c>
     </row>
   </sheetData>
